--- a/data/trans_bre/CoTrAQ_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/CoTrAQ_R-Provincia-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.96924606848325</v>
+        <v>-12.02702230838766</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.65755033453641</v>
+        <v>-16.88871264875782</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.184423830432745</v>
+        <v>-0.173088773320161</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2870590610757897</v>
+        <v>-0.2930590557240405</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.07253964110766</v>
+        <v>15.27271997983222</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>11.44448218768635</v>
+        <v>10.93209179894764</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.2662235702897729</v>
+        <v>0.2639206586395366</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2861120220783475</v>
+        <v>0.255723181943344</v>
       </c>
     </row>
     <row r="7">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-20.89455133961174</v>
+        <v>-20.1143416047038</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-13.80309179935187</v>
+        <v>-13.05552028475928</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2586974364430634</v>
+        <v>-0.2508690776552062</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2414526525740028</v>
+        <v>-0.2291487107608321</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.516524651969826</v>
+        <v>1.824136636323605</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>10.79361473847746</v>
+        <v>11.51415644053973</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.02053609718790998</v>
+        <v>0.02469058548065975</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.221058119017456</v>
+        <v>0.2441982983487334</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.6394547383069</v>
+        <v>-19.77546060902168</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.41720139757675</v>
+        <v>-12.67459761944042</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.2539232452596178</v>
+        <v>-0.2532049599598603</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.2609650893094336</v>
+        <v>-0.263178454368924</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.469747891952178</v>
+        <v>7.058579948515457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>14.6821411028345</v>
+        <v>13.57038627732517</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.1231175877508152</v>
+        <v>0.1029137271092023</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.3892259864403856</v>
+        <v>0.3725454803690272</v>
       </c>
     </row>
     <row r="13">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.20748280793831</v>
+        <v>-16.6442760701423</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-17.67110117927548</v>
+        <v>-17.50090972856118</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2113402634222691</v>
+        <v>-0.2187863852156026</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2300200882253169</v>
+        <v>-0.226269018868651</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.043038633171253</v>
+        <v>9.43465939172766</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>8.6603641089192</v>
+        <v>10.02079333734025</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1198001762855661</v>
+        <v>0.140143804259734</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.1264655963211294</v>
+        <v>0.1556844600420539</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-41.55782577836676</v>
+        <v>-41.14321414723211</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-21.88672063985626</v>
+        <v>-22.32828655451148</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.620091745748232</v>
+        <v>-0.5991899966265154</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.331504591874791</v>
+        <v>-0.3362452654122677</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-6.81692793136289</v>
+        <v>-5.3207600055133</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>12.5513023738394</v>
+        <v>11.40326654954218</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.1283453396768313</v>
+        <v>-0.09533194333321597</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.2367612103058316</v>
+        <v>0.2176825165508252</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-10.16716787801939</v>
+        <v>-10.21878698214406</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-25.2582609578026</v>
+        <v>-27.65208950084514</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1214319661397557</v>
+        <v>-0.1253110792309158</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4838670651754785</v>
+        <v>-0.5103609150523303</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.88051961038821</v>
+        <v>19.13145350820825</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.923565565200712</v>
+        <v>1.804520887348191</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.2656961253490396</v>
+        <v>0.2783709726525793</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.06865530154119286</v>
+        <v>0.03918205924508687</v>
       </c>
     </row>
     <row r="22">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-18.59995343822071</v>
+        <v>-18.33000553935312</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.373972832342375</v>
+        <v>-9.229955142192114</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.2608288030395154</v>
+        <v>-0.2555670323745994</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.2463861971708118</v>
+        <v>-0.2299625352550576</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.526320756985208</v>
+        <v>1.639366479501862</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.823554812522758</v>
+        <v>6.180970516646942</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.01841599255335695</v>
+        <v>0.02388239132862505</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.1858790624037863</v>
+        <v>0.1883719426053437</v>
       </c>
     </row>
     <row r="25">
@@ -1057,16 +1057,16 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-11.15715902187699</v>
+        <v>-11.37312002171672</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-15.82563126402775</v>
+        <v>-15.44777354360453</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1525929464058553</v>
+        <v>-0.154661337359507</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2023589146503754</v>
+        <v>-0.1941460871579976</v>
       </c>
     </row>
     <row r="27">
@@ -1077,16 +1077,16 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.976252829440264</v>
+        <v>4.595295602841072</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>-0.8532492234527674</v>
+        <v>-0.3071589250461064</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.0723449268475774</v>
+        <v>0.06775965471548741</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>-0.01239224267511156</v>
+        <v>-0.004059648284304305</v>
       </c>
     </row>
     <row r="28">
@@ -1121,16 +1121,16 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-9.707328736442744</v>
+        <v>-10.14936375067366</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-8.587318944034973</v>
+        <v>-8.483320118790479</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>-0.1346017981813648</v>
+        <v>-0.1389390472070413</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>-0.1565502287732722</v>
+        <v>-0.1519601638324349</v>
       </c>
     </row>
     <row r="30">
@@ -1141,16 +1141,16 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.332803698508985</v>
+        <v>-1.400177174375961</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.4886512674571928</v>
+        <v>-0.2547196966008093</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>-0.01973763882725552</v>
+        <v>-0.01864387355973391</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>-0.008186051961090388</v>
+        <v>-0.004097308406878743</v>
       </c>
     </row>
     <row r="31">
